--- a/data/dnb/2025-04.xlsx
+++ b/data/dnb/2025-04.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DNB Mastercard Demo" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +458,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45716</v>
+        <v>45777</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -471,158 +471,223 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45714</v>
+        <v>45776</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NETFLIX.COM</t>
+          <t>KIWI STORO</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>179</v>
+        <v>412.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45712</v>
+        <v>45775</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>KIWI MAJORSTUEN</t>
+          <t>JOKER FROGNER</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>456.8</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45710</v>
+        <v>45773</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>REMA 1000 TORSHOV</t>
+          <t>NETFLIX.COM</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>892.3</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45708</v>
+        <v>45771</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>VINMONOPOLET OSLO S</t>
+          <t>ODA.COM</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>675</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45706</v>
+        <v>45769</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>STARBUCKS KARL JOHAN</t>
+          <t>VINMONOPOLET AKER BRYGGE</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>89</v>
+        <v>456</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45703</v>
+        <v>45767</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GITHUB.COM</t>
+          <t>FOODORA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>129</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45700</v>
+        <v>45765</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SAS EUROBONUS</t>
+          <t>STARBUCKS OSLO S</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2890</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45698</v>
+        <v>45764</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MENY BOGSTADVEIEN</t>
+          <t>WOLT</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>567.45</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45696</v>
+        <v>45762</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>POWER STORO</t>
+          <t>GITHUB.COM</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1299</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45693</v>
+        <v>45761</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>COOP EXTRA GRØNLAND</t>
+          <t>JUST EAT</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>723.9</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45691</v>
+        <v>45759</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Innbetaling</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>15000</v>
+          <t>MENY CC VEST</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>534.6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45689</v>
+        <v>45757</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>XXL SPORT ALNA</t>
+          <t>POWER LAMBERTSETER</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1499</v>
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>45755</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>JACK &amp; JONES OSLO CITY</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>45753</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>G-SPORT STORO</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>45752</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Innbetaling</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>COOP PRIX SAGENE</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>534.2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>LINDEX OSLO CITY</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>699</v>
       </c>
     </row>
   </sheetData>
